--- a/ref.xlsx
+++ b/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabethlu/R_Projects/ded-dep-ibs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66EE047-B075-BF47-A270-5F4B54F0091C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E023D68-DB13-7145-9DCE-0A4250660909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{BBA81647-35D6-3A41-9C35-1ABFBA5056B5}"/>
+    <workbookView xWindow="3360" yWindow="3360" windowWidth="23460" windowHeight="13680" xr2:uid="{BBA81647-35D6-3A41-9C35-1ABFBA5056B5}"/>
   </bookViews>
   <sheets>
     <sheet name="IBS_GWAS" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>KDELR2/GRID2IP</t>
   </si>
   <si>
-    <t>*reported P value are for ANP</t>
-  </si>
-  <si>
     <t>DYNC1I1</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>*reported P value are for SNP</t>
   </si>
 </sst>
 </file>
@@ -444,12 +444,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -464,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -473,6 +479,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,7 +821,7 @@
   <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -828,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -851,145 +860,145 @@
     </row>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4">
         <v>5.5506999999999996E-4</v>
       </c>
       <c r="D3" s="2">
         <v>4.6999999999999897E-6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.3655000000000003E-4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="1">
-        <v>8.3655000000000003E-4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
         <v>1.5624E-3</v>
       </c>
       <c r="D5" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1">
+        <v>70</v>
+      </c>
+      <c r="C6" s="4">
         <v>1.7026000000000001E-3</v>
       </c>
       <c r="D6" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.1122999999999999E-2</v>
       </c>
       <c r="D7" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.5873E-2</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="1">
-        <v>2.5873E-2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4">
         <v>3.2072999999999997E-2</v>
       </c>
       <c r="D9" s="2">
         <v>3.41E-6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
         <v>3.2294999999999997E-2</v>
       </c>
       <c r="D10" s="2">
         <v>3.41E-6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1000,59 +1009,59 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>3.8573999999999997E-2</v>
       </c>
       <c r="D11" s="2">
         <v>2.5999999999999899E-3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1">
+        <v>70</v>
+      </c>
+      <c r="C12" s="4">
         <v>3.8656999999999997E-2</v>
       </c>
       <c r="D12" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4">
         <v>4.0723000000000002E-2</v>
       </c>
       <c r="D13" s="2">
         <v>3.41E-6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>5.9212000000000001E-2</v>
@@ -1061,16 +1070,16 @@
         <v>4.5199999999999898E-6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
         <v>8.1280000000000005E-2</v>
@@ -1079,7 +1088,7 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -1097,16 +1106,16 @@
         <v>1.29999999999999E-3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1">
         <v>9.9072999999999994E-2</v>
@@ -1115,34 +1124,34 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1">
         <v>0.14052000000000001</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1">
         <v>0.16169</v>
@@ -1151,7 +1160,7 @@
         <v>3.41E-6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1169,7 +1178,7 @@
         <v>6.6E-3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -1187,7 +1196,7 @@
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -1205,7 +1214,7 @@
         <v>0.53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1223,16 +1232,16 @@
         <v>0.11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
         <v>0.22297</v>
@@ -1241,16 +1250,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
         <v>0.24592</v>
@@ -1259,16 +1268,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>0.24756</v>
@@ -1277,34 +1286,34 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1">
         <v>0.25303999999999999</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1">
         <v>0.26035000000000003</v>
@@ -1313,34 +1322,34 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1">
         <v>0.28592000000000001</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1">
         <v>0.29452</v>
@@ -1349,16 +1358,16 @@
         <v>3.41E-6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
         <v>0.35589999999999999</v>
@@ -1367,16 +1376,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1">
         <v>0.38463000000000003</v>
@@ -1385,25 +1394,25 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1">
         <v>0.45014999999999999</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1421,16 +1430,16 @@
         <v>6.1999999999999902E-3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>0.47576000000000002</v>
@@ -1439,16 +1448,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>0.49742999999999998</v>
@@ -1457,7 +1466,7 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2"/>
     </row>
@@ -1475,16 +1484,16 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1">
         <v>0.59136</v>
@@ -1493,16 +1502,16 @@
         <v>3.41E-6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1">
         <v>0.60470000000000002</v>
@@ -1511,16 +1520,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
         <v>0.60909999999999997</v>
@@ -1529,7 +1538,7 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -1547,16 +1556,16 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
         <v>0.62583</v>
@@ -1565,16 +1574,16 @@
         <v>3.41E-6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1">
         <v>0.64176</v>
@@ -1583,16 +1592,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1">
         <v>0.64817000000000002</v>
@@ -1601,16 +1610,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1">
         <v>0.65305999999999997</v>
@@ -1619,15 +1628,15 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1">
         <v>0.67220000000000002</v>
@@ -1636,16 +1645,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="1">
         <v>0.68591000000000002</v>
@@ -1654,16 +1663,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1">
         <v>0.69379999999999997</v>
@@ -1672,7 +1681,7 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="2"/>
     </row>
@@ -1690,7 +1699,7 @@
         <v>0.13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2"/>
     </row>
@@ -1708,16 +1717,16 @@
         <v>1.2E-2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1">
         <v>0.76653000000000004</v>
@@ -1726,16 +1735,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1">
         <v>0.78132000000000001</v>
@@ -1744,16 +1753,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1">
         <v>0.78154000000000001</v>
@@ -1762,34 +1771,34 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1">
         <v>0.83118000000000003</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
         <v>0.84150000000000003</v>
@@ -1798,7 +1807,7 @@
         <v>4.5199999999999898E-6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="2"/>
     </row>
@@ -1816,16 +1825,16 @@
         <v>3.59999999999999E-2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1">
         <v>0.86997999999999998</v>
@@ -1834,16 +1843,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" s="1">
         <v>0.91393000000000002</v>
@@ -1852,16 +1861,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="1">
         <v>0.92198999999999998</v>
@@ -1870,7 +1879,7 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="2"/>
     </row>
@@ -1888,7 +1897,7 @@
         <v>0.13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60" s="2"/>
     </row>
@@ -1906,16 +1915,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1">
         <v>0.93011999999999995</v>
@@ -1924,16 +1933,16 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1">
         <v>0.94140999999999997</v>
@@ -1942,7 +1951,7 @@
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F63" s="2"/>
     </row>
@@ -1960,16 +1969,16 @@
         <v>1.9E-2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1">
         <v>0.96284999999999998</v>
@@ -1978,16 +1987,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="1">
         <v>0.99100999999999995</v>
@@ -1996,16 +2005,16 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="1">
         <v>0.99156999999999995</v>
@@ -2014,7 +2023,7 @@
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -2026,13 +2035,13 @@
         <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="2">
         <v>0.47</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2"/>
     </row>
@@ -2044,13 +2053,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="2">
         <v>3.1E-2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2"/>
     </row>
@@ -2062,288 +2071,288 @@
         <v>26</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="2">
         <v>4.5199999999999898E-6</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="2">
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="2">
         <v>4.0899999999999896E-6</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2">
         <v>4.5800000000000002E-6</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K86">
-    <sortCondition ref="C3:C86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K85">
+    <sortCondition ref="C3:C85"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
